--- a/data/trans_camb/P25A_6_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_6_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>99,42</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66,55</t>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,18</t>
+          <t>-1,82; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-3,01; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,73; 100,0</t>
+          <t>-2,68; 1,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,98</t>
+          <t>-1,39; 3,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,42</t>
+          <t>-0,81; 4,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 99,73</t>
+          <t>-4,38; 0,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 1,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 0,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 1,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 2,03</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 0,28</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 0,37</t>
         </is>
       </c>
     </row>
@@ -738,7 +846,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>-3,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,32 +861,62 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>123,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17124,19%</t>
+          <t>-26,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>237,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12056,58%</t>
+          <t>-70,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-62,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>81,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-72,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-63,14%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,12 +1016,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -863,32 +1031,62 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>50,67</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,17</t>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -901,12 +1099,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +1114,62 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>-1,24; 1,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,52</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,91</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 1,9</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 1,85</t>
         </is>
       </c>
     </row>
@@ -969,32 +1197,62 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>128,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>147,52%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>32,78</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>25,44</t>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,67</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>-0,85; 2,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,67</t>
+          <t>0,93; 4,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,3</t>
+          <t>-3,17; 0,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 1,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 1,42</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 0,76</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,56</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1533,62 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>133,97%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>122,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-68,84%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-35,02%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>35,26%</t>
         </is>
       </c>
     </row>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 173,46</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>58,91</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>-0,11</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>24,21</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,37</t>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,84</t>
+          <t>-1,1; 2,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,89</t>
+          <t>-1,11; 2,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,86; 86,67</t>
+          <t>-1,19; 2,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,65</t>
+          <t>-2,27; 1,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,09</t>
+          <t>-4,03; 1,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 62,02</t>
+          <t>-1,38; 1,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,74</t>
+          <t>-1,59; 1,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,56</t>
+          <t>-1,33; 1,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,39; 70,01</t>
+          <t>-1,45; 2,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 1,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 1,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 1,59</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 1,7</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 1,43</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 1,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>102,25%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6125,32%</t>
+          <t>67,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>-42,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2607,5%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>-12,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4697,76%</t>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>40,95%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>39,8%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-23,67%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-69,7; —</t>
+          <t>-69,96; 878,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,01; 929,76</t>
+          <t>-66,47; 753,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1039,31; 31241,41</t>
+          <t>-81,84; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 666,78</t>
+          <t>-100,0; 519,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 385,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 518,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,41; 441,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1327,14; 14388,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-55,35; 381,85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-61,19; 391,21</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-67,08; 388,67</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-74,05; 217,95</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-78,39; 149,46</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33,27</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>42,78</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>37,97</t>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,89</t>
+          <t>-4,77; 2,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 6,01</t>
+          <t>-3,34; 5,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,06; 57,67</t>
+          <t>-4,05; 6,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,32</t>
+          <t>-5,45; 5,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 3,66</t>
+          <t>-1,85; 6,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,84; 66,78</t>
+          <t>-3,66; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,35</t>
+          <t>-2,88; 3,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,32</t>
+          <t>-1,95; 5,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,13; 56,59</t>
+          <t>-5,84; 2,58</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 2,69</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 1,59</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 3,56</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 4,83</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 2,63</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 3,22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>-25,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>753,22%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1565,09%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>59,23%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1064,6%</t>
+          <t>-33,69%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-19,24%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-18,35%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 99,05</t>
+          <t>-70,02; 126,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 231,79</t>
+          <t>-55,58; 246,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>101,4; 2096,75</t>
+          <t>-66,11; 231,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-79,34; 204,23</t>
+          <t>-71,94; 204,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 293,94</t>
+          <t>-40,75; 549,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>473,17; 4419,17</t>
+          <t>-79,97; 177,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-64,39; 65,51</t>
+          <t>-65,81; 292,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 143,67</t>
+          <t>-67,83; 430,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>459,01; 2148,13</t>
+          <t>-79,82; 129,65</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-76,82; 154,51</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-62,46; 70,09</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-48,69; 142,66</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-42,64; 181,87</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-62,67; 92,47</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-45,21; 139,48</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>32,99</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24,91</t>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 4,17</t>
+          <t>-7,93; 3,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,35</t>
+          <t>-11,39; 0,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 32,81</t>
+          <t>-7,63; 5,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 6,09</t>
+          <t>-5,39; 8,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 6,34</t>
+          <t>-1,28; 11,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,23; 55,65</t>
+          <t>-6,06; 5,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,77</t>
+          <t>-5,62; 8,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,36</t>
+          <t>-3,73; 9,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,83; 41,81</t>
+          <t>-11,27; 1,81</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 4,93</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 3,43</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 3,45</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 5,89</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 1,92</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 5,01</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-17,76%</t>
+          <t>-20,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-50,4%</t>
+          <t>-54,03%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>148,44%</t>
+          <t>-18,46%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>118,4%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>402,46%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>301,57%</t>
+          <t>-42,53%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-19,64%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-6,92%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-21,53%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-25,98%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 86,04</t>
+          <t>-63,89; 63,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,51; 20,52</t>
+          <t>-82,73; 11,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 489,95</t>
+          <t>-68,05; 95,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 120,96</t>
+          <t>-58,15; 234,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 114,4</t>
+          <t>-43,86; 648,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>130,84; 909,41</t>
+          <t>-47,27; 90,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 61,79</t>
+          <t>-49,84; 121,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 38,5</t>
+          <t>-33,93; 144,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121,29; 605,94</t>
+          <t>-73,45; 38,14</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-67,03; 108,1</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-42,79; 54,25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-56,02; 45,93</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-35,06; 79,91</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-60,32; 28,45</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-41,28; 126,33</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>27,05</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>40,02</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>34,23</t>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,05</t>
+          <t>-1,26; 0,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,83</t>
+          <t>-1,68; 0,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,19; 41,49</t>
+          <t>-1,35; 1,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,16</t>
+          <t>-1,2; 1,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,7</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>26,62; 54,35</t>
+          <t>-1,26; 1,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,76</t>
+          <t>-1,04; 1,93</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,83</t>
+          <t>0,01; 3,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,87; 43,14</t>
+          <t>-3,29; -0,2</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 0,98</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 0,79</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,99</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,97</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 0,46</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 1,27</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1224,77%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1765,18%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1529,33%</t>
+          <t>-40,63%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-19,46%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-3,49%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-3,13%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>32,74%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-21,73%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 69,18</t>
+          <t>-43,87; 57,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 56,36</t>
+          <t>-54,49; 40,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>619,6; 2371,7</t>
+          <t>-46,16; 82,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 66,46</t>
+          <t>-40,36; 121,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 103,54</t>
+          <t>-9,77; 232,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1008,52; 3016,59</t>
+          <t>-43,24; 70,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 40,13</t>
+          <t>-34,84; 111,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 46,5</t>
+          <t>-1,89; 176,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>991,48; 2186,99</t>
+          <t>-66,0; 0,88</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-57,04; 51,96</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-33,08; 42,17</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-34,6; 54,32</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 99,36</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-47,8; 19,1</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-31,62; 71,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
